--- a/docs/upload/每日运势-生肖刑冲破害.xlsx
+++ b/docs/upload/每日运势-生肖刑冲破害.xlsx
@@ -261,14 +261,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="18"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -1427,21 +1427,31 @@
   <dimension ref="B1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="30" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.875" style="1" customWidth="1"/>
-    <col min="3" max="8" width="26.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.375" style="1" customWidth="1"/>
-    <col min="10" max="15" width="26.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.3365384615385" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.0288461538462" style="1" customWidth="1"/>
+    <col min="5" max="5" width="46.3557692307692" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.4711538461538" style="1" customWidth="1"/>
+    <col min="7" max="7" width="32.0480769230769" style="1" customWidth="1"/>
+    <col min="8" max="8" width="47.6923076923077" style="1" customWidth="1"/>
+    <col min="9" max="9" width="40.25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="37.3942307692308" style="1" customWidth="1"/>
+    <col min="11" max="11" width="26.875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="36.0576923076923" style="1" customWidth="1"/>
+    <col min="13" max="13" width="36.0480769230769" style="1" customWidth="1"/>
+    <col min="14" max="14" width="38.1442307692308" style="1" customWidth="1"/>
+    <col min="15" max="15" width="26.875" style="1" customWidth="1"/>
     <col min="16" max="16384" width="9.25" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="51.95" customHeight="1"/>
-    <row r="2" ht="93.95" customHeight="1" spans="2:14">
+    <row r="2" ht="205" customHeight="1" spans="2:14">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1468,7 +1478,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" ht="96.95" customHeight="1" spans="2:14">
+    <row r="3" ht="215" customHeight="1" spans="2:14">
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1495,7 +1505,7 @@
       </c>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" ht="96.95" customHeight="1" spans="2:14">
+    <row r="4" ht="219" customHeight="1" spans="2:14">
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1572,7 +1582,7 @@
       </c>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" ht="96.95" customHeight="1" spans="2:14">
+    <row r="7" ht="198" customHeight="1" spans="2:14">
       <c r="B7" s="2" t="s">
         <v>28</v>
       </c>
@@ -1622,7 +1632,7 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" ht="96.95" customHeight="1" spans="2:14">
+    <row r="9" ht="208" customHeight="1" spans="2:14">
       <c r="B9" s="2" t="s">
         <v>38</v>
       </c>
@@ -1647,7 +1657,7 @@
       </c>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" ht="96.95" customHeight="1" spans="2:14">
+    <row r="10" ht="195" customHeight="1" spans="2:14">
       <c r="B10" s="2" t="s">
         <v>43</v>
       </c>
@@ -1697,7 +1707,7 @@
       </c>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" ht="96.95" customHeight="1" spans="2:14">
+    <row r="12" ht="127" customHeight="1" spans="2:14">
       <c r="B12" s="2" t="s">
         <v>53</v>
       </c>
